--- a/Check.xlsx
+++ b/Check.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kalashnikov\Desktop\ddd\qamid-diplom\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Отображение формы логина</t>
   </si>
@@ -25,9 +33,6 @@
     <t>Открытие экрана новостей с главного экрана</t>
   </si>
   <si>
-    <t>Открытие страницы заявку с главного экрана</t>
-  </si>
-  <si>
     <t>Разворачивание новости на главном экране</t>
   </si>
   <si>
@@ -52,9 +57,6 @@
     <t>Фильтрация заявок</t>
   </si>
   <si>
-    <t>Редактирование заявок с экрана претензий</t>
-  </si>
-  <si>
     <t>Создание заявок на экране заявок</t>
   </si>
   <si>
@@ -95,41 +97,43 @@
   </si>
   <si>
     <t>Выход из приложения</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Открытие страницы заявок с главного экрана</t>
+  </si>
+  <si>
+    <t>Редактирование заявки с экрана заявок</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -152,53 +156,511 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF64E32"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
     <a:clrScheme name="Тема Office">
       <a:dk1>
@@ -400,7 +862,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -419,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -449,7 +911,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -475,7 +937,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -501,7 +963,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -527,7 +989,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -553,7 +1015,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -579,7 +1041,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,7 +1067,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -631,7 +1093,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -657,7 +1119,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -670,9 +1132,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -689,7 +1157,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -708,7 +1176,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +1202,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +1228,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +1254,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +1280,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -838,7 +1306,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +1332,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +1358,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +1384,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +1410,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -955,9 +1423,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -971,7 +1445,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -990,7 +1464,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +1494,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +1520,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1546,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1572,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +1598,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,7 +1624,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +1650,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +1676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +1702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1241,285 +1715,574 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.42578125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
+      <c r="C1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
+      <c r="C2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" t="s" s="3">
-        <v>17</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" t="s" s="3">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" t="s" s="3">
-        <v>20</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" t="s" s="3">
-        <v>21</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" t="s" s="3">
-        <v>22</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" t="s" s="3">
-        <v>27</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="containsText" dxfId="55" priority="55" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="56" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="53" priority="53" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="54" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="52" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="containsText" dxfId="47" priority="47" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="48" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="containsText" dxfId="45" priority="45" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="44" priority="46" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="containsText" dxfId="43" priority="43" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="44" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="containsText" dxfId="41" priority="41" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="42" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="containsText" dxfId="37" priority="37" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C28)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="38" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="containsText" dxfId="35" priority="35" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C27)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="36" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="containsText" dxfId="33" priority="33" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="34" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="containsText" dxfId="31" priority="31" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="32" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="29" priority="29" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="28" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="containsText" dxfId="21" priority="21" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="22" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="containsText" dxfId="19" priority="19" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="18" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="11" priority="11" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C9)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C11)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Пройдено">
+      <formula>NOT(ISERROR(SEARCH("Пройдено",C14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Ошибка">
+      <formula>NOT(ISERROR(SEARCH("Ошибка",C14)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
